--- a/OpsManage/static/resources/server.xlsx
+++ b/OpsManage/static/resources/server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">服务器子类型</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">机柜</t>
   </si>
   <si>
-    <t xml:space="preserve">机柜位置</t>
+    <t xml:space="preserve">机柜位置（最高那个U位）</t>
   </si>
   <si>
     <t xml:space="preserve">U数</t>
@@ -92,77 +92,16 @@
   </si>
   <si>
     <t xml:space="preserve">备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC服务器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理服务器导入测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">控制专网</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中线局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未使用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S5500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfsdfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.21.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中线局数据机房</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南水北调建设期合同</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中科软</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-12-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-12-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfsdfds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gsdgdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfgsdfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfdgsdfgsdgsdfgdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,6 +124,12 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -201,8 +146,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCD4D1"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FFFAC090"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -249,19 +194,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,7 +260,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFCD4D1"/>
+      <rgbColor rgb="FFFAC090"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -345,50 +290,56 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="24.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="50.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="40.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="25" style="0" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.87"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -397,25 +348,25 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -424,13 +375,13 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -443,100 +394,54 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1321354</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2" type="list">
-      <formula1>"PC服务器,小型机,刀片机"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2" type="list">
-      <formula1>"控制专网,业务内网,业务外网"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2" type="list">
-      <formula1>"使用中,未使用,故障,其它"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U2" type="list">
-      <formula1>"Windows,Unix,Linux,Other"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/OpsManage/static/resources/server.xlsx
+++ b/OpsManage/static/resources/server.xlsx
@@ -98,8 +98,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -151,12 +152,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -194,19 +202,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,8 +297,8 @@
   </sheetPr>
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,7 +310,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="24.5"/>
@@ -320,11 +328,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.87"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -342,10 +350,10 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -360,7 +368,7 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -369,31 +377,79 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
